--- a/execl_directory/output_part_5.xlsx
+++ b/execl_directory/output_part_5.xlsx
@@ -446,2156 +446,2156 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7387251661510659368</t>
+          <t>https://www.douyin.com/video/7273508758112734522</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/839360440fce4144b1b7a58a8a58b914~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=O%2BxLYEh3V1JE8cKNb9Tn%2Fz1leXw%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oUJwFk3eDWzIA8gDSBNELgAsLtP8BVnOAIbb9e~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=PLONitlXmMw74rsQ57yDDZ7%2BsI0%3D</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3337</t>
+          <t>816</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>经常刷到我的人，说明你对财富感兴趣#创业 #商业 #财富 #拓客引流 #营销</t>
+          <t>中国男篮把我肺都气炸了，到底咋回事儿？ #体育#男篮#世界杯#萧大业#科比</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7387069515735026959</t>
+          <t>https://www.douyin.com/video/7272699460868787516</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/c6de6d2f7f1a4d38924376f88d81b7aa~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=xK40dw2PrSXBokPlzA578YZ01z0%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oYbAtnKAABBDHqgeNBnRNkIa7EOGW09VdeAAnL~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=apFlFx05Op%2BeDR1n%2F7ZgAPZxivE%3D</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>3.3万</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>学完课工厂女老板3个月创收百万#拓客引流 #实体 #门店 #创业 #商业</t>
+          <t>这个鸡汤可以让你活的更通透…@微信创作者  #鸡汤#人生 #成长 #萧大业#金句</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7386938457106533659</t>
+          <t>https://www.douyin.com/video/7272366151353601317</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/31be9a4251f7448ca2b560ea6a987710~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=Lpo8dVUtdoVigWIQQQMEoa8497M%3D</t>
+          <t>https://p9-pc-sign.douyinpic.com/tos-cn-p-0015/oAf7NIMQnBBJKBo3gDboAECWh8bJXkAAlfy92s~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=%2FYcCzeNKKqWlqq7UT5xPsKbQHz0%3D</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>8972</t>
+          <t>393</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>老年社交需求背后的“银发金矿”#银发经济 #商业思维 #创业 #生意 #赛道</t>
+          <t>生日的意义到底是什么？ #生日#萧大业#学员#成长#训练营</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7386692170234809651</t>
+          <t>https://www.douyin.com/video/7271935256553459005</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/e1b312dc2a1244c89b755bf5bc3b2237~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=2KDudwZnziJxWiM6y8hU4C8Dmqs%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oQA0WkxBPGqDA389qlQCj6ANXGgbeGGrfv6Ipn~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=N%2F840xL%2BMQSiq%2BJaEKeDBgpsL2M%3D</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>5883</t>
+          <t>2565</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>00后把钱花到哪里去了#商业思维 #宠物经济 #创业 #取悦自己 #个人成长</t>
+          <t>欺负你的人，会替你受苦。 #马户#又鸟#刀郎#李玟#萧大业</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7386641353381399823</t>
+          <t>https://www.douyin.com/video/7271603203991489849</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/2431dfb1809e41538315fe7be45b250d~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=I5LNjx0ycfx8jnDz77w8iBNdBVg%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/ogbRp00ABBCDGlAMYonuaJQJ0Ixx477zeeABf1~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=A4FvDKqUx3jMZD0f10PdRL2Lm%2BM%3D</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1051</t>
+          <t>758</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>摊牌了！张琦老师砸了几千万才爆火？#张琦 #新媒体 #天地人网 #商业思维 #拓客引流</t>
+          <t>成年人从来没有容易二字，成长很多时候就是学会接受 #成长#生活#人生#萧大业</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7386512076497325338</t>
+          <t>https://www.douyin.com/video/7270864923738000698</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/349bb952b4d34aa39e60290083404f08~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=TbLCjA7H2143%2FZ%2FPmQkbD4JF%2ByE%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oYrcNExIzx9Z6BT7ghtSATBKNfwDPyAA0DCeVn~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=R4MbpkXVXkgNlCxC0snkFN01%2FwQ%3D</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1063</t>
+          <t>6507</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>张琦的火，到底是怎么做到的?#新媒体 #企业家 #副业 #创业 #精准获客</t>
+          <t>如果非要说是剧本，那一定是上帝写的#梅西#足球#球王#阿根廷#萧大业</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7386325465692261684</t>
+          <t>https://www.douyin.com/video/7270507185828875581</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/efbff38db62948b5ab9d26cf7d815c1c~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=y03Yaim7Of%2Bh8FRabSpvewnbghk%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/ooLAxOyVBBeMh1uAfwA70EIzmgRNc3KBrnNN8C~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=rOQKbantxc%2BKSYd%2BZONvEclnbpk%3D</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>4334</t>
+          <t>4142</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>没有一夜暴富，请你脚踏实地#暴富 #强者思维 #认知 #脚踏实地 #个人成长</t>
+          <t>吹梅西多余，不吹梅西我难受[呲牙]@微信创作者 #梅西#足球#球王#阿根廷#萧大业</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7386250602638068992</t>
+          <t>https://www.douyin.com/video/7270108483930836281</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/467e0244be2740b195e750f6afa962d7~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=N4dxDRKA3Xa5jAyXqctETmf63D8%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oARJLg0D3H95CQVIvBekAOHngqNfWAalbJ5ALH~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=rfhAsAnqUxq7PoT4RJuLsXVgpKw%3D</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4.7万</t>
+          <t>988</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>大女主的题材为何如此走红？#玫瑰的故事 #大女主 #商业思维 #创业 #马斯克</t>
+          <t>爱，不是寻找一个完美的人，而是学会用完美的眼光欣赏那个不完美的人。七夕快乐 #七夕#爱#爱情#婚姻#萧大业</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7386242221483248934</t>
+          <t>https://www.douyin.com/video/7277529678536133947</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/eae14132759443238375c32b65851cf8~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=%2Fss3z7MqAe66VCpgMQeLGuhLZVI%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oA7nTB1QASaQVCrJavaeDoUfICrbQlP9IAneBK~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=1D3QRXS4U68MpG%2F3396BnTfCBwY%3D</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>747</t>
+          <t>2449</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>为什么现在年轻人不爱结婚生子#创业 #商机 #商业思维 #营销 #精准获客</t>
+          <t>又要恰饭，又瞧不起人 #李佳琦#直播带货#淘宝#美妆#萧大业</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7385943064189144347</t>
+          <t>https://www.douyin.com/video/7277167859162287418</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/50eb2282785d41cfa93e5368ecbf5227~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=nQDDTW1KAbiBC4X00nvh3hRtj1M%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/ogBCAsXfEfLA7AtDEkhzGatoI9YngiLNAN9zL9~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=nqz4jS5DDnfqJ54PKqPvp7pgYpM%3D</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>706</t>
+          <t>4275</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>营销5.0时代，企业的痛如何解？#企业 #短视频 #ip #商业思维 #创业</t>
+          <t>今天是教师节，仅以此视频致敬天下所有的教育工作者。 #教育#陶行知#老师#教师节#萧大业</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7385745626622889253</t>
+          <t>https://www.douyin.com/video/7276407472145976636</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/9b52b4472c624eefb687340bd71317fa~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=UFIrWLpJhFwxaptL6V0TtOur2hw%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oovBCeEfj8X8ACaJBJVy7KA61DQPbB5ng1fhOm~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=tAMPRPTlRhL44yQOmHDw1VzIqeA%3D</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2525</t>
+          <t>2343</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4步自我介绍法，资源自动送上门#口才 #表达 #高情商说话技巧 #自我介绍 #资源</t>
+          <t>故事还在继续，传奇永不止步。#梅西#阿根廷#足球#萧大业#世界杯</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7385556580349103410</t>
+          <t>https://www.douyin.com/video/7275653652935675192</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/71cabd89045e4c808e1600ae3fa2fee9~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=5YUjUToAEnAd11cn9gqSP60odZE%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oAHBKbF43A07nI2IBNKDAlCaUBeeEqJ0JaAfYT~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=nkLbDzfawtDWYB9TnTmvRFH2Pgk%3D</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>802</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>如何做一名优秀的管理者#管理 #领导力 #团队 #创业 #影响力</t>
+          <t>个人观点，非喜勿喷[呲牙] #茅台#瑞幸#酱香拿铁#营销#萧大业</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7385520347887504677</t>
+          <t>https://www.douyin.com/video/7274926739250351416</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://p9-pc-sign.douyinpic.com/tos-cn-i-dy/eef570c00c6c40cea21d109158b96b69~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=WzsjYKfn%2Fh6IxP7vvaFkX3TvLsM%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/osf19bbJkENWAmAuuB981jqDIJnBfiAEvgb01y~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=PqQUn1p1WuMy%2BX%2F%2BbsMGKWkZ330%3D</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>3616</t>
+          <t>9185</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>女性经济的崛起，已经势不可挡#女性经济 #商业思维 #创业 #认知 #经济</t>
+          <t>这是一段直击心灵应该听听的演讲…#李安 #梁朝伟#刘嘉玲#电影#萧大业</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7385185708132060453</t>
+          <t>https://www.douyin.com/video/7274578312725351738</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/d010ff441f20405c8784f7ccca075133~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=tbuj7MqNFVpFVozieYOGz3Lh08M%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/o4Qnk9CPmzJHABaJVI3AjoCADnNnoYVIJgbe9f~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=LsYsV26M1gNY2P7HKKYCoLh5jnM%3D</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1282</t>
+          <t>3.7万</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>聪明的老板一定会认真听完#营销 #商业思维 #破局 #拓客 #精准获客</t>
+          <t>他低调，内敛，用一生的演绎证明了自己的热爱。@微信创作者  #梁朝伟#刘嘉玲#电影#威尼斯电影节#萧大业</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7385125736488635648</t>
+          <t>https://www.douyin.com/video/7274176769316506938</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/46714f212215498f9ca5dac799cb06bd~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=jJYS3M8AFpoYTTNOeNDUABxWhTA%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oUICM9Bk18zEE8MpHefnUgAANTAbAt0qjQlvDx~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=JoQPvsXbRNFpNHoUt4PsCyqPRic%3D</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>6774</t>
+          <t>616</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>没有做下去的决心，指望谁来帮你#企业 #创业 #决心 #思维 #商业</t>
+          <t>周末愉快，萧大业献歌给你，祝你随风飘舞… #萧大业 #成长 #你的答案#人生 #音乐</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7385031487814470952</t>
+          <t>https://www.douyin.com/video/7273795404133584184</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/ee7e328178c84a50bddda32831c77763~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=SHdbkuW35kf7U8fDK19BSBzjnXk%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/okw9C8DfppULVxNmAWZOtVgInbAieACDSB0kbQ~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=qfnBPHa8H6SECPTrYK5OxAnF8cg%3D</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1234</t>
+          <t>2438</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024普通人可以入局的商业机会.#商机 #短视频 #直播 #创业 #企业家</t>
+          <t>克制自己去纠正别人的欲 望。成年人只能筛选，不能教育。 #逆袭#人性#人生#成长#萧大业</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7384767238441618728</t>
+          <t>https://www.douyin.com/video/7273508758112734522</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/e259aff68e0842e09fab2cb274f6c398~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=9480KUjugm49ado6bOQg%2FcTBmEw%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oUJwFk3eDWzIA8gDSBNELgAsLtP8BVnOAIbb9e~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=PLONitlXmMw74rsQ57yDDZ7%2BsI0%3D</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.8万</t>
+          <t>816</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>为什么说80后是最惨一代#80后 #思维 #认知 #乐观 #创业</t>
+          <t>中国男篮把我肺都气炸了，到底咋回事儿？ #体育#男篮#世界杯#萧大业#科比</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7384800698111642906</t>
+          <t>https://www.douyin.com/video/7272699460868787516</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/b452a8c7f40547e2b41a439d1b3d93bf~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=GAuwN4fBVwTIP4qEgOlJgYY74pk%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oYbAtnKAABBDHqgeNBnRNkIa7EOGW09VdeAAnL~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=apFlFx05Op%2BeDR1n%2F7ZgAPZxivE%3D</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>3749</t>
+          <t>3.3万</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>机会到底在哪，看完就知道了#机会 #创业 #企业 #新媒体 #拓客引流</t>
+          <t>这个鸡汤可以让你活的更通透…@微信创作者  #鸡汤#人生 #成长 #萧大业#金句</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7384747175579766031</t>
+          <t>https://www.douyin.com/video/7272366151353601317</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/0ad52ab17999475c9048335319ba028d~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=48fYLKXYggs4t3HJQWlHIIWCFZ8%3D</t>
+          <t>https://p9-pc-sign.douyinpic.com/tos-cn-p-0015/oAf7NIMQnBBJKBo3gDboAECWh8bJXkAAlfy92s~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=%2FYcCzeNKKqWlqq7UT5xPsKbQHz0%3D</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2242</t>
+          <t>393</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>中国人爱储蓄的传统不该丢#储蓄 #传统 #认知思维 #家庭 #存钱</t>
+          <t>生日的意义到底是什么？ #生日#萧大业#学员#成长#训练营</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7384430305786055988</t>
+          <t>https://www.douyin.com/video/7271935256553459005</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/167340d4a6ce456098c156eb44845c7a~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=wpsf8hNC0Jv7XUGOJq0CE%2FJCFWQ%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oQA0WkxBPGqDA389qlQCj6ANXGgbeGGrfv6Ipn~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=N%2F840xL%2BMQSiq%2BJaEKeDBgpsL2M%3D</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1680</t>
+          <t>2565</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>人和人的区别，在于认知的差异#认知 #创业 #商业思维 #营销 #企业</t>
+          <t>欺负你的人，会替你受苦。 #马户#又鸟#刀郎#李玟#萧大业</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7384457796198108443</t>
+          <t>https://www.douyin.com/video/7271603203991489849</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://p9-pc-sign.douyinpic.com/tos-cn-i-dy/8386f16af82544c19c68772dd1440a32~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=a0HIghoeiwkjC1%2FXW7W5bqWFmWc%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/ogbRp00ABBCDGlAMYonuaJQJ0Ixx477zeeABf1~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=A4FvDKqUx3jMZD0f10PdRL2Lm%2BM%3D</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>882</t>
+          <t>758</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>这辈子别输在不会说话上#会说话 #高情商说话技巧 #表达 #口才 #为人处世</t>
+          <t>成年人从来没有容易二字，成长很多时候就是学会接受 #成长#生活#人生#萧大业</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7384456599592570127</t>
+          <t>https://www.douyin.com/video/7270864923738000698</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/da3829a9c39a4f7cbd153f86ff94eaa3~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=YHqPJ8bP1NnbE9PySFGDbLZI%2BsA%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oYrcNExIzx9Z6BT7ghtSATBKNfwDPyAA0DCeVn~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=R4MbpkXVXkgNlCxC0snkFN01%2FwQ%3D</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1353</t>
+          <t>6507</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>同学们，请查收你的购课观看指南#张琦 #商业思维 #创业</t>
+          <t>如果非要说是剧本，那一定是上帝写的#梅西#足球#球王#阿根廷#萧大业</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7384360808517569827</t>
+          <t>https://www.douyin.com/video/7270507185828875581</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/30dab942f5d1458f9b367ad861f21e83~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=gaxXuVwFDI6AE4FlS1GCyvor0Tk%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/ooLAxOyVBBeMh1uAfwA70EIzmgRNc3KBrnNN8C~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=rOQKbantxc%2BKSYd%2BZONvEclnbpk%3D</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2667</t>
+          <t>4142</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>农村网红真的成为了新的蓝海吗？#创业 #商业思维 #农村 #认知 #实体</t>
+          <t>吹梅西多余，不吹梅西我难受[呲牙]@微信创作者 #梅西#足球#球王#阿根廷#萧大业</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7384287030869626149</t>
+          <t>https://www.douyin.com/video/7270108483930836281</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/94bfc7fc524e4d78bbcb552e1a6ad312~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=PbiNY1f3wIeikEzUDmIauYXWtB4%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oARJLg0D3H95CQVIvBekAOHngqNfWAalbJ5ALH~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=rfhAsAnqUxq7PoT4RJuLsXVgpKw%3D</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>3.0万</t>
+          <t>988</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>《玫瑰的故事》给我们的一些思考启发#婚姻 #爱情 #情感共鸣 #玫瑰的故事 #女性成长</t>
+          <t>爱，不是寻找一个完美的人，而是学会用完美的眼光欣赏那个不完美的人。七夕快乐 #七夕#爱#爱情#婚姻#萧大业</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7384074955463478555</t>
+          <t>https://www.douyin.com/video/7269731258903645499</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://p9-pc-sign.douyinpic.com/tos-cn-i-dy/35b5a707b1764d68aa79a944110cf364~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=8xQFTIxu2WpZCRc%2B%2FizqwR%2FeVmQ%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/ocej90GzkINnA4AiRB48HfXDQ3nCkQAnJgbOhh~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=5XOuyvG0dB%2BFAivNtOGgGfz2y4A%3D</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>8.5万</t>
+          <t>4274</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>《玫瑰的故事》给我们的一些思考#女性成长 #原生家庭 #爱情 #玫瑰的故事 #刘亦菲</t>
+          <t>一个顶天立地，百折不挠，有趣的真男人，老兵不死…#德约科维奇#网球#老兵不死#体育#萧大业</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7384054998889516323</t>
+          <t>https://www.douyin.com/video/7269380728159325500</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/6573b5d0b5694b6da3604445f1e94953~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=OfwINRaaIpzf7JleJpFN5YL7Rdg%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/owNngZOWDvJCQoegkfRA2DgbYcI9BYA4EIACpr~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=Hpc96pPL0n6ylReEI%2Fr%2FwBiiC0I%3D</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>3741</t>
+          <t>2048</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>我见过情商高的人，都用这3种方式说话#高情商 #高情商说话技巧 #会说话 #表达 #人情世故</t>
+          <t>为他人抱薪者,不可使之冻毙于风雪！ #李玟#刀郎#coco#好声音#萧大业</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7383721891707505930</t>
+          <t>https://www.douyin.com/video/7268989200643493175</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/fdc3b14fc6ed4fa890da0013219f646b~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=N7guP6m0M%2FUC5qvfaVEPQRmPD7I%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/owcAFBhFz3zXergYG8JNfOgAtINBbyIAoYEFRT~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=SpZOmH%2BaSmWkGNpTcf6wpjFjT1M%3D</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>3435</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>你的善良需要带一点锋芒#认知’ #思维 #善良 #为人处世 #强者思维</t>
+          <t>真假其实很好辩，总要水落石出的。值得欣慰的是大多数人良知尚存。 #李玟#coco#中国好声音#萧大业#管理</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7383719317155679540</t>
+          <t>https://www.douyin.com/video/7268238109018557757</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/75c75ad4ff0e46388084061431a2807d~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=XDEgX1AKqleEybKMdn95m8qHDRk%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/ocCDdDQb7JDkmaBYCUn7dgefpBWuAAFIcTecQB~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=5LcUulrFqSz9dpjO34p0JQRqeaE%3D</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>6862</t>
+          <t>1863</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>向上社交其实一点也不难#向上社交 #向上兼容 #为人处世 #智慧人生 #认知思维</t>
+          <t>女人到底应该嫁一个什么样的男人？#巴菲特#婚姻#找对象#人生 #萧大业</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7383356496056192293</t>
+          <t>https://www.douyin.com/video/7267883208228769080</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/110c8e30cf244f9ea90aa85212e462b5~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=2ftFE4E%2Fnk27X9iWlp6rBiAHAj4%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/owCXqKAxEhEks68AltyAczUBbIxKNadtgAQfDe~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=A1wEF3fh26Ly%2FN4PsamO0AoY5D4%3D</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1757</t>
+          <t>472</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>你的运气藏在你的嘴巴里#高情商说话技巧 #口才 #个人提升 #表达 #会说话</t>
+          <t>没有累死的女人，只有怨死的女人。 #女人#沟通#情商#赞美#萧大业</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7383346808749034786</t>
+          <t>https://www.douyin.com/video/7267496946028350777</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://p9-pc-sign.douyinpic.com/tos-cn-i-dy/a768bb30c9214553b0db7c06fac18a8b~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=qczBfHwrbzems3d3%2FR%2FdDhEmCDg%3D</t>
+          <t>https://p9-pc-sign.douyinpic.com/tos-cn-p-0015/oAfAA2VNNgA1sT37uRVXtbFeggDAoBntkQm9J8~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=mccMZCdjMifwgjAE7DzQMMQn17c%3D</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>3031</t>
+          <t>648</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>优秀的企业靠时代的机遇，伟大的企业靠时代的历练#华为 #企业 #创业 #商业思维 #机遇</t>
+          <t>妈妈的七次主动退出，会造就孩子独立的一生 #成长 #人生 #妈妈#育儿#萧大业</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7382925232941632803</t>
+          <t>https://www.douyin.com/video/7267131725359205691</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/59ee87c9d5364773b7513099749897cd~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=ezSbmq4oto%2FDM6pNsSLCW8Ryvkk%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/ostFQidTQySJEghLCsufUAyzBkQ1bIeaTNNABA~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=%2BGvfcpZt0QVf%2Bw8EBku80J96lds%3D</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1726</t>
+          <t>1375</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>没人能抗住的高情商说话技巧！#高情商说话技巧 #高情商 #人际交往 #表达 #沟通</t>
+          <t>很多家庭里都有对号入座的人，不信来听听。 #家庭#婚姻#亲密关系#亲子关系#萧大业</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7381850061434555685</t>
+          <t>https://www.douyin.com/video/7266787262145334565</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/4bdeaaceb25244f7a842728a4e95506a~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=jWfWTtuudeUXWJmQZibVver%2B6BE%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/o0CaCGEb9kDXfNAvBonYtAeNsIY2gAFIoi0zQA~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=1%2FJDzdzOHX5zWrnxA%2BROBuvzjxM%3D</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1.8万</t>
+          <t>182</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>你越早清醒，你越早成熟成功#情感 #认知 #成功 #个人提升 #个人成长</t>
+          <t>不知道什么时候考大学报志愿竟然成了一门很赚钱的生意，功利主义和现实主义把理想都吞没了…#高考#现实主义#教育#理想主义#萧大业</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7381698311759187237</t>
+          <t>https://www.douyin.com/video/7266432743997852987</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://p9-pc-sign.douyinpic.com/tos-cn-i-dy/c295c9a6e160483b89ebaad3a5a010a8~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=1zkVm8r8FQrXOHEzBTxlxCEps2Y%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oINeEAbphKdp3UuXztBnIzcjgBfhAyA8aHzN6h~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=VNKWa5ZgPRzisiSd628c516KEs8%3D</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1.4万</t>
+          <t>3.0万</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>为什么普通人很难改变自己#改变 #环境 #圈子 #认知 #人脉</t>
+          <t>一封一定要抽时间读一读的信#梁继璋#成长 #人生 #不论爱与不爱都不会再相见#萧大业</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7381483994400951586</t>
+          <t>https://www.douyin.com/video/7266036049615359269</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/08b3ef522c8841f0b1cf7d4beb026919~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=1%2F%2BGaMFq%2BY6v1pshHbgn7KyH2sM%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oUgAiDfapEzwSPBAKAwgNwhOyWI5eu6ANAUxJB~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=wdCPeWYSPa8kQpcF2nhT%2FnAvhDo%3D</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1198</t>
+          <t>777</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>85岁靠卖易拉罐，纳税100个亿 #商业思维 #创业者 #生意 #易拉罐 #强者思维</t>
+          <t>能扛事儿，就已经是才华横溢了。 #成长 #人生 #越战#管理#萧大业</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7381411063067200805</t>
+          <t>https://www.douyin.com/video/7265654313693826362</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/f638143c55284bac91fa7586ab666d1e~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=WI7SE4ZceABa0Mvo9u%2FO0J4lGJc%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/o87JNAz1OybAif9ck62fnBNAgErUBPNINnHMhW~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=ZUu2gqr6NNBqoOwzWPtENSqko9E%3D</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1.4万</t>
+          <t>2237</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>玫瑰的故事为何能火,刘亦菲只是其一#玫瑰的故事 #商业思维 #创业 #流量 #认知</t>
+          <t>弘一法师对人生的大彻大悟全部浓缩在这八然里了。#弘一法师#李叔同#人生 #八然#萧大业</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7381111746251001140</t>
+          <t>https://www.douyin.com/video/7264902598627560741</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/63581b60beca4642a8825666e9f75696~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=axxZnCD6sSbdXRhAkijLJMGr1Go%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oIjIgC0EQ6oHAlkeXehHALDQSnHnbWAa9BB5LN~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=8529sAnS8BjicRVpIsz5IiEf3eQ%3D</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>4697</t>
+          <t>2675</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>人在低谷看到自己，人在高峰看到别人#张琦 #低谷 #创业 #创业者 #商业思维</t>
+          <t>有所为有所不为，不做不对的事比做对的事更重要。 #段永平#vivo#OPPO#管理#萧大业</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7380766126730497332</t>
+          <t>https://www.douyin.com/video/7264532724399000890</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/0e510b7a981f405bb7d3af6c453acaa7~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=x8HRHOyykqL0dLJdDKy4OxOJWQA%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oUf8bABeEm9NL3TbIbXuQIMdkgvzZnms0BDgAA~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=Z7740WhavMYKR1HGNBTCkNsjSJE%3D</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>3103</t>
+          <t>2691</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>人口出生率下降未来商机在哪？#商机 #大健康 #商业思维 #创业 #老龄化</t>
+          <t>努力变成一个美好的人，然后一生与美好为伴。 #善良#教养#包容#成长 #萧大业</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7380741915853049123</t>
+          <t>https://www.douyin.com/video/7264171542798535973</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/07d051be9f0942cd92497d1df3032d6a~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=WE43HRUH1pIT3ZGaDHXRxIVq9OE%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oQP5ej2rLwIwJ5DBefDCAIagHnABFhQA7JZXnQ~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=50h3ucnMhzmsdtygREb5Qv0Txsk%3D</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2209</t>
+          <t>1340</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>高手不是追风口而是等风来#风口 #商业思维 #创业 #企业 #趋势</t>
+          <t>一门三院士，各个皆才俊，来看看史上Z牛老爸的育儿经吧 #成长 #梁启超#梁思成#林徽因#萧大业</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7380712040261881128</t>
+          <t>https://www.douyin.com/video/7262319684660383031</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/efa6c23087f64b9c877dd0e804f28aee~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=V2acN087zdeQatx6xOZOnauq93c%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/okY2RIDmOaVMfR0pD2If4FAInbAweCChbE9TeQ~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=SJYScBwXpQJu%2F2WcL1BtLEqt1Zg%3D</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1304</t>
+          <t>913</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>睡前读一遍，你的情商突飞猛进#高情商说话技巧 #高情商 #提升口才 #表达 #会说话</t>
+          <t>读书让我明白什么是对，什么是错… #读书#成长 #人生 #萧大业</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7380256499999771919</t>
+          <t>https://www.douyin.com/video/7261929428253560120</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/431d30063d1a4493bc2d685347206491~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=stxu8%2BabflwKJ0NeerutqJo1R5c%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oMkLEHFAAnD09gCQCjtBbelE4ANjcIfS94xnyB~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=QHLNBYNngAS6Eqrkg9PCy00LUzc%3D</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2060</t>
+          <t>4288</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>从流浪到百亿身家，90后创始人怎么做到的#创始人 #商业思维 #强者思维 #认知 #创业</t>
+          <t>前无古人。覃海洋以震惊世界的方式四次让五星红旗飘扬在日本福冈。#覃海洋#游泳#世锦赛#同济大学#萧大业</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7379996105754414370</t>
+          <t>https://www.douyin.com/video/7260441088429788477</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/4740293008574b9ba76b3436175fd447~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=A7xo%2BxyP5WVw4z2gqay9ASssQx0%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/okLkInw7IANDpfBANARDbNSbqEr9gse8kCBlub~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=uVaB%2BBPdnZXpctd6jglLaZKWWWs%3D</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1.9万</t>
+          <t>2703</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>什么是人生重要的2个选择#人生 #思维 #认知 #感悟 #情感共鸣</t>
+          <t>福原爱的婚姻为什么也是一地鸡毛？因为大多数人都不知道婚姻的真相… #婚姻#福原爱#爱情#江宏杰#萧大业</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7379970354074242339</t>
+          <t>https://www.douyin.com/video/7260079734514535736</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/df8f807b52444fc4876a51a918a4a781~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=M%2FJP0093nAGpNMwL5uEorL3IvYY%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/o0mIAiquD8AkIwCgQ9nnNHlyPffrwvkBqApbBB~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=nvVrv8dPpOsWoTcSjVMxn4t9Cvo%3D</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>4116</t>
+          <t>2546</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>为什么创业九死一生，还是有人乐此不疲#创业 #商业 #认知 #强者思维 #打工</t>
+          <t>到底骂了谁？到底什么是雅什么是俗？ #罗刹海市#刀郎#音乐#雅俗#萧大业</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7379607659722312994</t>
+          <t>https://www.douyin.com/video/7259700295675039033</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/1c8906bfe6114609b29b528ba97aea86~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=3xU7ApL5cC6QCU%2FbY8Fahx0o4Gk%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oMAqGH0QSC19iqIiAPEe3gOf4JWh0A22fDRAeA~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=8Rkxj4dmkbC2Na7i7Q22%2F8eD288%3D</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>7240</t>
+          <t>2.0万</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>如何向上社交，请疯狂做这件事#向上社交 #董明珠 #张琦 #人际交往 #认知</t>
+          <t>《西海情歌》背后的故事 #刀郎#西海情歌#音乐#罗刹海市#萧大业</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7379571062662516020</t>
+          <t>https://www.douyin.com/video/7259334064602172730</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/09a7e81e0c54417cb61fca3401f092c2~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=nMsooQ2H8r%2FzWSNehTpwSICmzjg%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/o88PEAqA9QoAeNQbPFIAfPnkAzo8DAklCg0Xqv~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=vYlUEm0H%2FhmjqRP8ALRbhzHRDxw%3D</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>8.5万</t>
+          <t>1.2万</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>为什么钱流向不缺钱的人，爱流向不缺爱的人，苦却流向能吃苦的人？#强者思维 #商业思维 #人生感悟 #思考 #认知</t>
+          <t>刀郎为什么当年遭围攻？如今一首新歌又为什么全网刷屏？#刀郎#罗刹海市#那英#杨坤#萧大业</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7379532279086845184</t>
+          <t>https://www.douyin.com/video/7258240588011638075</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/a9dd650e010a4208bd5ad9cf0215317c~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=9JYSpKzqu6tLF4LEGCMjgy9pci0%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813/oshAIN7NT2qEOJAewcXy2AfmbAvzDCgAAgAD6C~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=m2Lhk0vYyvQ0RhFvvwcDNbBr77c%3D</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1293</t>
+          <t>1344</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>你希望张琦这个ip的终局是什么？#个人ip #张琦 #思维 #创业 #商业</t>
+          <t>唐诗宋词千万首，我独爱李白苏东坡 #长安三万里#李白#唐诗#电影#萧大业</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7379239932105100579</t>
+          <t>https://www.douyin.com/video/7257853740244274492</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/4b04038e603d454ebb354d0024056445~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=A%2B4%2FpzaPt8kfCKxaYYYou0QT1P0%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813/oUCXNEFIzI8nICExght4AuAAcfTZAyAAiOPer5~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=k7vBZz%2FnGRwGrarSleOlLyxvcXM%3D</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1.1万</t>
+          <t>2140</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>向上社交，牢记这3点#向上社交 #社交 #人际交往 #人脉 #情商</t>
+          <t>恒大的轰然倒塌能总结出很多经验教训 #恒大#房地产#负债#管理#萧大业</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7379212374978465058</t>
+          <t>https://www.douyin.com/video/7257478217244708157</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/8d2bd6314fcb4801b8823a8d8abd8489~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=hjB9CN1jzUKdqZ88kqmMUA2e2Og%3D</t>
+          <t>https://p9-pc-sign.douyinpic.com/tos-cn-i-0813/oQgAAWBN3IA9XA5CyXv83NAJ2ghLnCzCyEGeAf~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=2yCBXQcZHM2rVNuamrw60nR1GKU%3D</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1816</t>
+          <t>599</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>你和谁在一起，你就会成为谁#环境 #创业 #商业 #思维 #企业</t>
+          <t>你知道什么关系最铁吗？@微信创作者  #人际关系#三国演义#萧大业 #管理</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7379179123173887232</t>
+          <t>https://www.douyin.com/video/7257088308105202981</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://p9-pc-sign.douyinpic.com/tos-cn-i-dy/01b4c8472bb4439488f7d75ab4a67d37~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=ZxjtNcXapdy%2BlU7G81dObXL4duI%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/oo52zt2hA1e8AIcElCfyAWCzgoNsAAM2tyWAOI~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=FT8tAM1VkwdfycNGrXKgl9weO9s%3D</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1544</t>
+          <t>1663</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>成功的人为什么都有莫名其妙的自信#自信 #老板 #格局 #心态 #成功</t>
+          <t>卖房的亏成这样，买房的欠银行好多钱，到底咋回事儿 #恒大#房地产#负债#萧大业</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7379095866256133411</t>
+          <t>https://www.douyin.com/video/7256751012583705913</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/46b5f1636e7043d58f4b851ee5b0c116~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=6rbyz7bRHPck7W1j5l4h9lV%2BE2M%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813/owmEsAanJEKENGqeDAAliAE4BBf1ba7AM7IJCe~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=78eDk0BxneHEeaajOZiWyZrcCXI%3D</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>8899</t>
+          <t>1.8万</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>人赚不到钱的3大原因#创业 #商业 #赚钱 #思维 #企图心</t>
+          <t>如果命运抓了一手烂牌，怎么样才能打好。#八角笼中#王宝强#逆袭#人生#萧大业</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7378891462550818063</t>
+          <t>https://www.douyin.com/video/7256358186167405885</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/b827d8e891084564a354e5964215d613~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=kW6pbVCTP2Jxj83UfAwTWlOzcJU%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/o8AAAA1kNDaAA9jINSzbCewsCnipA8EReJ2dUg~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=8acEcewFzFDsQIgvyltQDhnQtoY%3D</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>696</t>
+          <t>3590</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>一个视频告诉你，张琦到底是怎么火的#张琦 #新媒体 #商业思维 #创业 #短视频</t>
+          <t>王宝强成功的原因到底是什么？ #八角笼中#王宝强#人脉#格斗#萧大业</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7378541196307664168</t>
+          <t>https://www.douyin.com/video/7255599929194745148</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/83f73d6867fc4aad8da17266acff0a0b~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=Y26FNHb0BNdYRypV9vAB7yi3r0g%3D</t>
+          <t>https://p9-pc-sign.douyinpic.com/tos-cn-i-0813c001/oQFsNI4Qn8jGRCIOgDb3AFAAoevFAkAA5LG9ei~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=x4V4NiumqMlFiyU8jjOGZGTukw4%3D</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1131</t>
+          <t>1645</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>祝广大学子一举高粽、金榜题名！端午安康#高考 #金榜题名 #端午安康 #一举高中 #张琦</t>
+          <t>简单易行，人人都能做到 #教育#育儿#孩子培养#成长 #萧大业</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7378534547601853711</t>
+          <t>https://www.douyin.com/video/7254912903369772325</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/80abfc00bcc840f1b861bcf40c8325bb~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=itp%2BXwZ6l6a9YpziDPRVvZoAiK8%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/ooeqQMN9AAvq6FnfAAg88rdZIbQKktDC6AD7dA~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=K0FK8Sr3MMs077PhnKZ7WCwCtC0%3D</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>343</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>钟薛高创始人直播还债，想做下一个“罗永浩”？#钟薛高 #罗永浩 #商业思维 #创业 #创业者</t>
+          <t>父亲在你的生命中是个什么角色？父爱是什么？#父亲#父爱#原则#母爱#萧大业</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7378514343689719055</t>
+          <t>https://www.douyin.com/video/7254573479708724540</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/d996a2c3147f47beaf1114b6120f6e2b~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=d0sZXlgdtQ3spi2gSZaocHat2Ec%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/ok6QAdbnNEMS9AkAebkfCrcWtCCAKDwA8AAuIg~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=QswhITckPjdyZhHg91NeZVoe53g%3D</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>758</t>
+          <t>1140</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>三条雀巢当面手冲，南京咖啡阿姨火了#雀巢咖啡 #商业思维 #南京阿姨 #手冲咖啡 #新媒体</t>
+          <t>大部分人根本分不清客户思维和用户思维，其实这背后是二种不同的商业逻辑 #客户思维#用户思维#商业逻辑#商业#萧大业</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7378148258729774351</t>
+          <t>https://www.douyin.com/video/7253039572764921146</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://p9-pc-sign.douyinpic.com/tos-cn-i-dy/c12ab304b9524d2da99ef97391ff28c1~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=COYP1CaYSSvxdXyXaeg967iKbVU%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813/owAIefWAnQFRcPRkAteAa17V7EbcJABIDQAPBT~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=v7kywJ4Us1hLSWPdCp5GOUxTpQs%3D</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1.2万</t>
+          <t>2190</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>燕之屋为何换王一博做品牌代言人#商业思维 #品牌 #营销 #燕之屋 #代言人</t>
+          <t>这个世界哪有什么抑郁症，不过是心软善良的人自己咽下所有的委屈，把自己逼疯了逼走了@微信创作者 #抑郁症#李玟#人生#处世态度</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7378126872548363560</t>
+          <t>https://www.douyin.com/video/7252671989310049573</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/875a2c0e12c64811b7648130289d8ea3~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=R8KQ89v1EDKohPTg4iHclUKjc8I%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/oIkANgm7DC2EqAe9JANIZsPAApAfgMbCyrqnDn~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=6BrGhMQ8RdnbgHEcDVDi5QZkxoQ%3D</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1281</t>
+          <t>1412</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>厉害的人都是反人性的#提升口才 #表达 #高手 #高情商说话技巧 #回话</t>
+          <t>听说抑郁症的人都是善良的人，因为改变不了世界，改变不了别人，见惯了各种丑恶，自己无法融入其中，只能郁郁寡欢，折磨自己。 #李玟#抑郁症#李玟阳光型抑郁症 流行天后#萧大业</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7377705705094073615</t>
+          <t>https://www.douyin.com/video/7252291359401397564</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/5d5384cd863d4fdba185945827496790~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=yMGKKSkszYuyElLPEeapBTVGUrI%3D</t>
+          <t>https://p9-pc-sign.douyinpic.com/tos-cn-i-0813/osAhAyqCC6hhApfe7aIAjaANAUgNaLDlACUEJz~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=atViGcSE3DAhn6YMq5fgU5DkkBk%3D</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>804</t>
+          <t>2439</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>不要想着天才员工，而是要用好普通人#员工 #人才 #老板 #人力资源 #领导力</t>
+          <t>阿里还有救吗？如果不做本质上的改变，早晚必死#马云#阿里巴巴#电商#管理#萧大业</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7377415548411317539</t>
+          <t>https://www.douyin.com/video/7250456326000610621</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/584deed2db9243c79f890d7c8f8256f2~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=BujcAPFqfwJLzoaKxwoEmG3M%2BJw%3D</t>
+          <t>https://p9-pc-sign.douyinpic.com/tos-cn-i-0813/okED1yS6IBOANknCweInbAW9uiAeAAsgAPRkQp~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=ysaGtZdOx3SS5ENqFHW4lE6w7Fw%3D</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1.8万</t>
+          <t>1641</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>未来中国一定是要走国际化#认知 #商业思维 #趋势 #格局 #基建</t>
+          <t>胖东来什么都好，就是上海没有 #胖东来#危机公关#管理#超市#萧大业</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7377315462691982632</t>
+          <t>https://www.douyin.com/video/7249683536645508412</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/c1236e56aeae4422a893aa868963375f~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=qSI7pOZk%2Fi0vgFpIqeDOcp%2BVQ50%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/osDAoDenghACEzuebAk9AAAIE2cqMnI8ALvCcN~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=S6h2ceKotQjiBSlRnUS290HaXXg%3D</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2.4万</t>
+          <t>3183</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>人口出生率下降，未来商机到底在哪  #人口 #商机 #创业 #商业 #出生率</t>
+          <t>一家之词，不知道你怎么看？ #莫言#小地方#大城市#萧大业</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7377015797949975808</t>
+          <t>https://www.douyin.com/video/7249343982512262456</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/c2d45c2eafca436d94571c0c9832bf7c~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=uy4kmj%2BIAfPy%2B0D3G%2BPGCUDCpWg%3D</t>
+          <t>https://p9-pc-sign.douyinpic.com/tos-cn-i-0813/oYI1QACA2rfaAaPS15EB2eXDqfrDsHAA051fIy~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=J%2Fq5Ih6sgvFog%2B29rnbta%2F8PWJ0%3D</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>3168</t>
+          <t>640</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>嘴笨不敢开口，只需这2步  #怯场 #嘴笨 #提升口才 #害怕 #表达</t>
+          <t>到底什么是领导力？#领导力#管理#华为#任正非#萧大业</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7376990643278744832</t>
+          <t>https://www.douyin.com/video/7248950121772158268</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/c77ce8461e754d6c83240bcecb67c2a5~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=OnF6zKyTr5pzPgdgze7Xy43augw%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813/oQAbueNjA3t7enD7QQ4BfiAQEyDBMJ6aAAEyID~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=dV1XaEATBuGFLM99FeYC%2BKFtBIg%3D</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>3753</t>
+          <t>3589</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>生活就是生下来活下去  #生活 #认知 #思维 #张琦 #感悟</t>
+          <t>他为何天天上热搜？#张雪峰#高考#考研#填志愿#萧大业</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7376645273675664655</t>
+          <t>https://www.douyin.com/video/7248186330159582520</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/71b7f80f03a0471fb916be6056995098~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=j4H%2Fwry%2Bdp8SuuvFtzfJcVI9PKM%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/o0fExad4AnulWNXWo5eCgsID9AJYATWbAACkAr~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=qb%2Fjsdf4uqxbmfZDkthAgxdXl3E%3D</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>846</t>
+          <t>1114</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>没有气场的女人，掌握3招脱胎换骨  #气场 #发言 #提升口才 #高情商说话技巧 #表达</t>
+          <t>其实富人一直都与风险为伍。 #泰坦尼克号#潜艇#富人#冒险#萧大业</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7376615289720556815</t>
+          <t>https://www.douyin.com/video/7247849571835972924</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/45f06d7232964b83b2916395580438eb~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=GAda4dbCs8THYBbVq2xMia59RL4%3D</t>
+          <t>https://p9-pc-sign.douyinpic.com/tos-cn-i-0813/eabd47a9db494da38f276a2b11308c63~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=f7oaCXg5JJZlbe%2FTPTxNa%2FATmhk%3D</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2493</t>
+          <t>1508</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>椰树搞反骨、蜂花捡粉丝，直播间怎么玩出新意  #椰树 #蜂花 #活力28 #直播间 #商业思维</t>
+          <t>没什么好辩论的。 #成长 #人生 #管理 #萧大业</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7376575709348695311</t>
+          <t>https://www.douyin.com/video/7247428797597814075</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/0359837975554f5b98cd4acbc19b5215~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=sPzibipnOSCX4D8bktIzGUVVU7o%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813/d2efa27db58d43e29359d302b3115b32~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=T4WY%2Fdd%2FNMFkn20vmVccXmTrSRM%3D</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1.2万</t>
+          <t>2279</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>人生的意义不止赚钱一种  #人生 #感悟 #赚钱 #认知 #思维</t>
+          <t>是什么时候开始你不敢说端午快乐了？端午节真的是为纪念屈原而设的吗？#端午#民俗#屈原#萧大业#节日</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7376283884603903272</t>
+          <t>https://www.douyin.com/video/7245228537433640252</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://p9-pc-sign.douyinpic.com/tos-cn-i-dy/3058a3c1a9914b908814702f12574163~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=I23oPZomLXdh4o8dR19Wdjprv4I%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/e74299020f19436f8d8dccc26cabbb15~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=%2BGWcjKsvNNVFIsQ8JpMs6tcsvno%3D</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>1.7万</t>
+          <t>9415</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>问题不是问题决定的，而是目标决定的  #目标 #认知 #商业思维 #企业 #问题</t>
+          <t>一个少年在球场狂奔，拥抱梅西，却赢得了一片牛逼的声音，为什么#足球#世界杯#梅西#狂奔少年#萧大业</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7376239252746571023</t>
+          <t>https://www.douyin.com/video/7244492193996623162</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/beb187ccaf2f4fb0b44a479ba3249d00~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=6jfEjuhIMB3WIxAzB%2F53RNPxWeg%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/a62fb376241d4412a8d813cbecbcf403~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=ReM0F%2FtzSIvW%2F6WZFvNDV8h8Fmc%3D</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1.6万</t>
+          <t>1.7万</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>低调这东西很高端，轮不到我们普通人  #自信 #创始人 #低调 #认知 #思维</t>
+          <t>我真是服了老胡#川大女生#偷拍#胡锡进#萧大业</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7376204783138475299</t>
+          <t>https://www.douyin.com/video/7244131412683689273</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/7dfbb8a0be6a4cf4b3ed870a9276429b~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=%2FaQBZGGCJbFtlQYA2A2YAPyu2KU%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/febd7ca5fdd544a5b88bc58b840a94a9~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=PMhohclkVguHTXmSzN%2BxKS53jos%3D</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2311</t>
+          <t>1188</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>成功者身上都有个共同特点  #成功者 #认知 #心智 #成熟 #创业</t>
+          <t>那个川大女生地铁事件为什么这么热？ #污蔑#川大女生#偷拍#地铁#萧大业</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7375934334995418383</t>
+          <t>https://www.douyin.com/video/7243771408583527740</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/ad38c19123ba4aeaa2471b61cfaaa612~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=Z2GRtGGlfD%2BQZIuXxLzA4DGxwgI%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/bc31afbbeaf54a62842c359fb8fbb2ca~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=8dPrQQY5WfMJqYAVCIrPBIadFGc%3D</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>4278</t>
+          <t>10.7万</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>有事做，有人爱，这就是幸福  #幸福 #人生 #认知</t>
+          <t>这件事来听听萧大业说二句 #川大女生#偷拍#污蔑#农民工#萧大业</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7375927188635372815</t>
+          <t>https://www.douyin.com/video/7243387448401743163</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://p9-pc-sign.douyinpic.com/tos-cn-i-dy/6bde3eb9419a46e581244b2189537823~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=A7X8DI39kZOagSBu%2F8zFBZqBOuk%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813/77c640810c6f4e88938fdf45026cb746~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=upXFVkUbYB5N5ONGZv576hp%2Bt18%3D</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>935</t>
+          <t>3363</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>如何克服发言紧张，几个月后侃侃而谈  #发言 #紧张 #提升口才 #高情商说话技巧 #表达</t>
+          <t>当面对不确定事件的时候，应该做最坏的打算，同时做最好的准备。 #不确定#人生#管理#成长#萧大业</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7375903496748518696</t>
+          <t>https://www.douyin.com/video/7242271316483542329</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/2471ba58c64c4aedb970efe10431fcfd~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=8rViQsgJPCjKTMoBPRWJxpZjDoI%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813/0956e6ba1c9a485ab4bc3f25d10fee59~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=8Gsd7K9c6l%2BaVNP6EdDa1srkqWQ%3D</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2530</t>
+          <t>956</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>高考是人生的第一次成人礼  #高考 #人生 #个人成长 #认知 #选专业</t>
+          <t>梅西终于做出了决定 #梅西#足球#世界杯#萧大业</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7375555191732587811</t>
+          <t>https://www.douyin.com/video/7242261198593396027</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/924cc79d352b46e0bf52f2a425ff100e~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=IIGsQ3uHPj13C%2BSsj0U2aCf9UwI%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813/78691acb188941b9991dffc68145b59c~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=03ztdoz%2F7h5yugVr3T2GMS%2Bm61Q%3D</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>1451</t>
+          <t>1148</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>不懂表达逻辑的人，永远赢不了  #表达 #演讲 #发言 #提升口才 #高情商说话技巧</t>
+          <t>为什么人性经不起考验？来听我讲一个故事吧 #人性#出轨#成都牵手门#萧大业#管理</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7375538502999624994</t>
+          <t>https://www.douyin.com/video/7241904838458576186</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/4829105d3c5a435e9d06bd85b751b1b9~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=WCx5HjK0jzxY6vllwnxcjLa1qV4%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/ef173f7584254c0099db512bd0462061~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=lmk4rN7WfRoxOd8ifmwWXT3Hvt8%3D</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>1780</t>
+          <t>459</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>和你们一起看看海，煮煮茶，聊聊天，惬意的周末，六一快乐  #张琦 #霸王茶姬 #商业思维 #认知 #创始人</t>
+          <t>一次高考真的能定终身吗？ #高考#机会#成长#人生#管理</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7375186055298944296</t>
+          <t>https://www.douyin.com/video/7241171019728276793</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/be4d96ba84cb4432b3f1a0259358608a~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=wNFkoNFgR857M%2FOtqI5sZxwYeEM%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/a34f62de49614185b5cb7a8980dce71a~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=7XXLZ3aIPaKtPNtDT76SRTrYCII%3D</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>1012</t>
+          <t>687</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>深耕行业19年，只为做好一件事  #张琦 #商业 #创业 #直播 #商业教育</t>
+          <t>不幸的家庭和有一个控制欲特别强的人有关 #控制欲#关心#成长#管理#萧大业</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7375167533051071759</t>
+          <t>https://www.douyin.com/video/7240801828340862264</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/e3bcc97257664ff18335e1905b964256~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=dljgQ5VI0Gc5rESy9BI4kvW2JNg%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/ad24793570bf4040be42117c6021a9af~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=1bnhu4ri3zGhxwRcY8Kd%2BN8OfBg%3D</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2099</t>
+          <t>377</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>没有莫名其妙的成功，没有所谓的横空出世  #张琦 #商业 #企业 #创业 #老板</t>
+          <t>其实你并不懂断舍离…#断舍离#5S#管理#成长#萧大业</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7375146718280600867</t>
+          <t>https://www.douyin.com/video/7240368178532977975</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/790e5c755e3048d7b72f5dc8df9632e4~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=p03bfOKQUVw4ipECACyW8lbVM3U%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813/d8aa738910374228ada6bc67896f12a7~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=%2BemONY8soy1P84ay7b1XPzha19U%3D</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>753</t>
+          <t>1654</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>300家门店美业老板，分享快速拓客秘诀  #实体 #拓客 #门店引流 #短视频引流 #实体店引流</t>
+          <t>一个人如果能感觉到自己痛，那证明你还活着；一个人如果能感受到别人的痛才算个人。 #武汉被轧孩子妈妈#键盘侠#网络暴力萧大业#管理</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7375065054145826082</t>
+          <t>https://www.douyin.com/video/7240043826503486778</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://p9-pc-sign.douyinpic.com/tos-cn-i-dy/0c84dffb167947cd8fd955c9b0d72821~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=3GChBvgVwJ%2B6NWmcnSHaqbB3aT0%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/c4a4ea4ea10b4815bc6c71aeefd904f6~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=B%2BcS%2BoqkqQWzhjVS9BFpE2xiEqQ%3D</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>14.2万</t>
+          <t>999</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>从流浪到百亿身家，90后创始人凭什么   #霸王茶姬 #创始人 #商业思维 #90后 #创业</t>
+          <t>千真万确，一屋不扫 何以扫天下 #扫除力#管理#领导力#人生 #萧大业</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7374795312306605346</t>
+          <t>https://www.douyin.com/video/7239662422514994487</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/c1d44ede3e494796b78db28ac830912e~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=zRoT1N13suRhEX9smkPlmXOZcQI%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/6f5d03545e2a4401b3f595d0b4e8b395~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=zkdCi8JrXJrA6PGZKQuiWtkKc2c%3D</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>1.8万</t>
+          <t>884</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>你敢不敢坚持100天改变自己  #改变 #提升口才 #表达 #演讲 #发言</t>
+          <t>如果真的懂了，可以省去很多麻烦。#逻辑#事实#小人#黑粉#杠精</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7374765447784238376</t>
+          <t>https://www.douyin.com/video/7239287753744174373</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/c71647b6137040d298093b71d466f5e9~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=fwe5IFbxhH6n6m4HV9LhOrFeO%2BA%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/9d07ed345b9b41ce9c594a0231e8c126~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=TIkyEJ5OqQjG9%2FqFJHzETJVyXK8%3D</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>1.8万</t>
+          <t>4758</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>看懂这个视频，你就看懂了人性  #人性 #女人 #男人 #认知 #员工</t>
+          <t>很多人并没有意识到，马斯克这次访华绝对是一件大事 #马斯克#特斯拉#Megapack#电动汽车#储能</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7374758351290387746</t>
+          <t>https://www.douyin.com/video/7238940486570986789</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/e2405ffb44ef4419b841799dc22d850a~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=rEyUTNXA3mSJ0Y5lpwxjJayg47M%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/dff6fbf8791c454a9f313d7759b57d4e~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=uCousM5cHArXJ4nAXlFqQgJmT00%3D</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2.0万</t>
+          <t>3973</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>未来新能源汽车会死掉一大批  #新能源 #汽车 #经济 #商业思维 #创业</t>
+          <t>神秘的第一性原理到底是什么？ #马斯克#特斯拉#第一性原理#创新#电动汽车</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7374737432954031395</t>
+          <t>https://www.douyin.com/video/7238558991914208572</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/92ff25837f424a20be461fd6c0a596f3~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=76NNoZ%2B6bkaalUl%2FpQG6s66ayEE%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/48e6f708052c408a9bb269490f87ba29~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=zEjdvRuAt%2BrpLFxGQ26iKqrybd4%3D</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>5733</t>
+          <t>1.1万</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>究竟什么才是人生最大的悲哀  #人生 #认知 #创业 #商业 #情感共鸣</t>
+          <t>外星人做什么都与众不同，颠覆了传统教育的模式。培养的孩子又能搞科研又能挣钱 #马斯克#特斯拉#教育#批判式思维#创新</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7374705770656533795</t>
+          <t>https://www.douyin.com/video/7238195427470773560</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://p3-sign.douyinpic.com/tos-cn-i-dy/019fd98e726849df8be5c9a7e5c65a21~noop.jpeg?biz_tag=aweme_video&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=optimized_cover&amp;se=false&amp;x-expires=1737295200&amp;x-signature=1%2FpF2TqF1%2BuQwsXBzpgpfXIMGtw%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813/68c2e0156b08421c8b8ef0d538b8d3ce~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=Gc4Na5bOmjHxAhuufSxZ%2Fqu9GfQ%3D</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>1172</t>
+          <t>1612</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>《甄嬛传》为什么能火10多年#精准获客 #门店引流 #短视频引流 #实体店引流 #天地人网</t>
+          <t>在一个由骗子和傻子组成的社会中, 人们痛恨的并不是说谎者, 而是揭穿谎言的人 #骗子#傻子#撒谎#成长 #人生</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7374430226526326016</t>
+          <t>https://www.douyin.com/video/7237829312806751547</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://p3-sign.douyinpic.com/tos-cn-i-dy/767404f69ca24cb38bfccb6e5e0d2901~noop.jpeg?biz_tag=aweme_video&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=optimized_cover&amp;se=false&amp;x-expires=1737295200&amp;x-signature=i2PWW7oOaur2BSaBQ94qMG6p35Y%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813/edecad45f25940c9bb2c81ec604ed4ca~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=o6diTkb0ZDLrBrXxtbNhZsFVRAM%3D</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>8126</t>
+          <t>1096</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>上海全中国最不愿意生孩子的城市#商业 #三胎 #认知 #思维 #创业</t>
+          <t>谦虚使人进步，骄傲使人落后。 #马斯克#特斯拉#蔚来#小鹏#理想</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7374366037640285474</t>
+          <t>https://www.douyin.com/video/7237461157890493753</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://p11-sign.douyinpic.com/tos-cn-i-dy/75c767cfd5db4a1db41af00404ab52fb~noop.jpeg?biz_tag=aweme_video&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=optimized_cover&amp;se=false&amp;x-expires=1737295200&amp;x-signature=i%2BHk2YzFToe7B0ljAFZbpm9pGSY%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/3a8d7738257943f88bab07cc50d6aa45~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=BMhzd5keXzhXTnLqTvCFFIOIjVQ%3D</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>4913</t>
+          <t>9303</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>万亿元级低空经济，如何“高飞”#低空经济 #商业思维 #创业 #新能源 #经济</t>
+          <t>马斯克是真牛啊@微信创作者 #马斯克#特斯拉#Space X#电动汽车#新能源</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7374079882839477538</t>
+          <t>https://www.douyin.com/video/7237084250078547257</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://p9-sign.douyinpic.com/tos-cn-i-dy/534c9f5bd80347feb516dd6184e3876d~noop.jpeg?biz_tag=aweme_video&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=optimized_cover&amp;se=false&amp;x-expires=1737295200&amp;x-signature=s1K%2FTiJchHnxedNeZ9z%2Bn8RGlHM%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813/3d31b01f512e43668e9f38660a0e461a~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=%2FBKPa4F%2F1iI4Dg9R4QCb1epCo30%3D</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>610</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>不要说你想说的，要说对方想听的#上台 #提升口才 #发言 #演讲 #高情商说话技巧</t>
+          <t>二个人还是有很多的不同。#董明珠#格力#任正非#华为#英雄主义</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7374065708419845416</t>
+          <t>https://www.douyin.com/video/7236686902131313979</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://p11-sign.douyinpic.com/tos-cn-i-dy/d12b477ad941492081a63c991e6fb7d1~noop.jpeg?biz_tag=aweme_video&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=optimized_cover&amp;se=false&amp;x-expires=1737295200&amp;x-signature=R5QAE1PHpEbnhGjO%2But3zLVw7jc%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/5c8c94ca705d406ba29402815e2cf20c~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=Z303oWxms4041Sf10EK22UiFJkE%3D</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>864</t>
+          <t>896</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>不是追求年少有为，普通人成功需要厚积薄发#张琦 #商业思维 #商业教育 #创业 #厚积薄发</t>
+          <t>慧泊公司画的线可以和徐悲鸿画的马，齐白石画的虾，张大千画的虎齐名，可以成为中国四大最贵的画。 #慧泊停车#南宁#乱收费#罚款#金融创新</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7374021996574723343</t>
+          <t>https://www.douyin.com/video/7236347206377229627</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>https://p11-sign.douyinpic.com/tos-cn-i-dy/bae0de7c334a42df8427b5f03908a39b~noop.jpeg?biz_tag=aweme_video&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=optimized_cover&amp;se=false&amp;x-expires=1737295200&amp;x-signature=n%2BwKDU42KZdl9jubTvppD1jzRoY%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813/db8f231dda184a05ae99eafe72a1d836~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=e7RVkvx%2FYz40Oann9X9P22EYxL8%3D</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2704</t>
+          <t>1836</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>上海和深圳哪个更适合创业#创业 #城市 #深圳 #上海 #商业思维</t>
+          <t>他学的逻辑真的不够用了#特斯拉#马斯克#电动汽车#管理#降价</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7373993748876922146</t>
+          <t>https://www.douyin.com/video/7235974407510969657</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>https://p3-sign.douyinpic.com/tos-cn-i-dy/b0e0497a3d124585b8908798f506733e~noop.jpeg?biz_tag=aweme_video&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=optimized_cover&amp;se=false&amp;x-expires=1737295200&amp;x-signature=dQ7CyWykWHxz27RQPYaRH7QxP9s%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/35f88340a00c4b34acd378005ce7203d~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=alJeP2pmeOZsZLWVONmrxm3OZz4%3D</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>6507</t>
+          <t>1019</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>谈判桌谈的不是关系，谈的是筹码和实力#博弈 #霸王茶姬 #商业思维 #创业 #生意</t>
+          <t>岂有此理，竟有此事？ #网红#诬陷#性侵#巧乐兹夫妇#小慧君</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7373951160153148687</t>
+          <t>https://www.douyin.com/video/7235961489713073467</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>https://p3-sign.douyinpic.com/tos-cn-i-dy/378191b046e44a2bbbe62c08b832c31a~noop.jpeg?biz_tag=aweme_video&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=optimized_cover&amp;se=false&amp;x-expires=1737295200&amp;x-signature=N4lue6wRmfkDLGBrQ3faQiRbuhQ%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813/302207f24f7b45d69f02e1841f13877c~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=Tck4km73YC7pG6LYcmu6BgmqoLY%3D</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>8085</t>
+          <t>502</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>人生建议，千万不要既要又要还要#婚姻 #人生 #恋爱 #目标 #认知思维</t>
+          <t>每一个冠军团队里都有一条硬汉 #NBA#巴特勒#热火#硬汉#凯尔特人</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7373699598302350644</t>
+          <t>https://www.douyin.com/video/7235233261386026292</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>https://p3-sign.douyinpic.com/tos-cn-i-dy/dbf3d5e823f74057a3500376ece1f755~noop.jpeg?biz_tag=aweme_video&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=optimized_cover&amp;se=false&amp;x-expires=1737295200&amp;x-signature=6qlJWp9Vv1PTe8nfBCeHcdvO7BM%3D</t>
+          <t>https://p9-pc-sign.douyinpic.com/tos-cn-i-0813/1f250534c8004775a5e99cf4dc7cb1e6~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=s1wJkWyFJ7mKvobfEz1D98i8Iwg%3D</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>7.4万</t>
+          <t>381</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>怎么样提升口才，成为超级表达者#提升口才 #高情商说话技巧 #老板 #表达 #商业</t>
+          <t>人类在满足了生理和安全需求后，最大的需求就是被认可@微信创作者 #认可#人生 #成长 #爱</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7373695803107462452</t>
+          <t>https://www.douyin.com/video/7235199629661359371</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>https://p3-sign.douyinpic.com/tos-cn-i-dy/77db687d4aa54fb08886b854836a5ad0~noop.jpeg?biz_tag=aweme_video&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=optimized_cover&amp;se=false&amp;x-expires=1737295200&amp;x-signature=%2Fc%2Br%2FEyC61HOcsjMfocLUyu7Ebo%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0026/82255c8eec1445f68a10957e407e7ae1~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=zVUCHbDwQYsrD2Mkc%2FBznR%2FXi%2FQ%3D</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>1.5万</t>
+          <t>444</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>郭有才的爆红给我们什么启示#新媒体 #商业思维 #企业 #自媒体 #创业</t>
+          <t>#剪映四周年</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7373655489747455266</t>
+          <t>https://www.douyin.com/video/7234838647386803491</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>https://p11-sign.douyinpic.com/tos-cn-i-dy/c70da6375a564a42bf664c4c99fae42e~noop.jpeg?biz_tag=aweme_video&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=optimized_cover&amp;se=false&amp;x-expires=1737295200&amp;x-signature=LOF6cxtGTpr8qxnjJpJMaRP3UmA%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/55a34bcdfebe47028523e69840b7bcad~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=ZZ0bZL39FL5lAgoYO0u41d22POA%3D</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>5549</t>
+          <t>900</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>头部主播的时代，已经一去不复返#平台 #商业思维 #主播 #企业 #创业</t>
+          <t>不清楚差距在哪里，再努力也没用。 #认知#成长 #刘强东#人生 #读书会</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7373616953321114914</t>
+          <t>https://www.douyin.com/video/7234490804314705192</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>https://p5-sign.douyinpic.com/tos-cn-i-dy/64b52ed83d8547afbc07dacaa9df065d~noop.jpeg?biz_tag=aweme_video&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=optimized_cover&amp;se=false&amp;x-expires=1737295200&amp;x-signature=4QcCK7chflD%2BPkyW54ezQVuySCE%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/e5fb376b624f436b8ea9b5b582cd744a~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=85BDfvD6uiDCuAvTuQLOlZKGsOo%3D</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>4108</t>
+          <t>378</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>赚有钱人的零花钱，不赚穷人的救命钱#认知 #思维 #赚钱 #商业 #生意</t>
+          <t>真正的疏远，总爱穿着热情的衣服。#改天#下次#以后#人际关系#活在当下</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7373588720244624640</t>
+          <t>https://www.douyin.com/video/7234154635714514210</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>https://p11-sign.douyinpic.com/tos-cn-i-dy/39582f9db074416eb13d1acd308c4ab6~noop.jpeg?biz_tag=aweme_video&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=optimized_cover&amp;se=false&amp;x-expires=1737295200&amp;x-signature=tvfRovuG6jVfkMyTPx%2BZAFLu7bI%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813/5506985f3dc84c188004731487cc5132~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=opc6tb2QsuGkJUZ%2BJGQxxusd81M%3D</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>7049</t>
+          <t>716</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>未来10年财富传承，背后隐藏的商机#财富 #富二代 #商机 #商业思维 #创业</t>
+          <t>上海顶级豪宅中一套爆赚千万，钱总是给了不缺钱的人，爱总是给了不缺爱的人，而苦都给了那些能吃苦的人 #上海#豪宅#赚钱</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7373339194510331170</t>
+          <t>https://www.douyin.com/video/7234119055722958115</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>https://p3-sign.douyinpic.com/tos-cn-i-dy/b10ae98e381b40c8bb5fd178840da013~noop.jpeg?biz_tag=aweme_video&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=optimized_cover&amp;se=false&amp;x-expires=1737295200&amp;x-signature=cspujo15XSd0C9QupQDTgYvnxEc%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813/3d057f8fbcbb415cb0fc203d91cc10f0~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=v65QyWLQIdgQ35q1Mp0eiVFKHsI%3D</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>2.0万</t>
+          <t>552</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>一个家族兴旺，至少需要三代人努力#精英教育 #富二代 #家族 #认知 #思维</t>
+          <t>看看这个公司的历史，再看看国外的真实情况，各位可以自己评判一下，不管什么观点都不要人身攻击 #house#笑果文化#李诞#脱口秀#人民子弟兵</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7373327325267545379</t>
+          <t>https://www.douyin.com/video/7233751665252240692</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>https://p5-sign.douyinpic.com/tos-cn-i-dy/f70d9c3f0b1943e69d7019fd8dce0dbf~noop.jpeg?biz_tag=aweme_video&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=optimized_cover&amp;se=false&amp;x-expires=1737295200&amp;x-signature=qZ5mJZPULnAA4XKx3XnVdSlUzE8%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/1d026a54ea7a4482aab64a17d58ed5eb~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=EQhQ50uk2%2F2c6I59C%2FG0h1pj7Rg%3D</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>1702</t>
+          <t>637</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>睡前读一遍，情商突飞猛进#高情商说话技巧 #提升口才 #情商 #表达 #会说话</t>
+          <t>乔布斯，马斯克同样是人精，牛逼的人其实哪方面都强，只是你看不到真相而已 #乔布斯#马斯克#苹果#特斯拉#取悦</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7373306989620890915</t>
+          <t>https://www.douyin.com/video/7233397469361491240</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://p5-sign.douyinpic.com/tos-cn-i-dy/b5e5d96a1852491c80a6410d7cc12560~noop.jpeg?biz_tag=aweme_video&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=optimized_cover&amp;se=false&amp;x-expires=1737295200&amp;x-signature=%2F2l6b59XKhADISj%2BwlrerXA6kOs%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813/29b0c9a596654ab8b07654b0264b04a8~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=fuPVQ6tQozmSnRQHfN1ejz0WuCY%3D</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>543</t>
+          <t>1097</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>为什么企业老板一定要做个人ip#企业 #个人ip #商业思维 #短视频 #新媒体</t>
+          <t>让别人爽是一种超级能力#认知#成长#爽#跪舔#职场</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7372953592170368296</t>
+          <t>https://www.douyin.com/video/7233012326352407823</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>https://p96-sign.douyinpic.com/tos-cn-i-dy/daaf3c1351974e68878afb1770e0709c~noop.jpeg?biz_tag=aweme_video&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=optimized_cover&amp;se=false&amp;x-expires=1737295200&amp;x-signature=yMBf3K1KzhCbdPrlqkRF6datA2g%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/47d9b3f8be2a4ff28791dbbd0ae95a91~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=XNOOj0ejewUa4r9Bb%2FEKpTHFDhk%3D</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>3283</t>
+          <t>895</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>为什么日本企业家喜欢生女儿#日本 #财富 #传承 #企业家 #认知</t>
+          <t>多么简单而又深刻的道理，可惜很多人不明白 #稻盛和夫#人生#成长#鸡汤#幸福</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7372944104960953652</t>
+          <t>https://www.douyin.com/video/7232634254906248448</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>https://p5-sign.douyinpic.com/tos-cn-i-dy/e7143caa68a4499fa72b601d4e4aa257~noop.jpeg?biz_tag=aweme_video&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=optimized_cover&amp;se=false&amp;x-expires=1737295200&amp;x-signature=Vg4yfSdxLIZezO06oJ%2Frb8InEMg%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813/fa5c627decba451c8f0255762b53cbc3~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=EjXpPe1WwY84AeRvFImuuhsidXg%3D</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>1.8万</t>
+          <t>618</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>为什么现在的00后会选择躺平#躺平 #00后 #认知 #成长 #思维</t>
+          <t>其实二个人不在一个量级 #孟羽童#董宇辉#格力#董明珠#俞敏洪</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7372926722934689059</t>
+          <t>https://www.douyin.com/video/7232244649140784424</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>https://p3-sign.douyinpic.com/tos-cn-i-dy/9a24d87685a449c9a7e4937da2106e07~noop.jpeg?biz_tag=aweme_video&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=optimized_cover&amp;se=false&amp;x-expires=1737295200&amp;x-signature=i575hhkh7hEKFdQjd2baO7cCepw%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/8e9c05095e0a4bfc9d58599c5de2b785~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=FS1y5mGdnCB5ZIFjurvFoMT%2BBZ4%3D</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>3482</t>
+          <t>1942</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>拒绝中年危机，彼此仍是少年#中年危机 #人生 #认知 #思维 #强者思维</t>
+          <t>员工辞职无非二个原因，要么钱给少了，要么心受委屈了#孟雨童#格力#董明珠#直播带货#离职</t>
         </is>
       </c>
     </row>
